--- a/medicine/Enfance/Françoise_Bertier/Françoise_Bertier.xlsx
+++ b/medicine/Enfance/Françoise_Bertier/Françoise_Bertier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Bertier</t>
+          <t>Françoise_Bertier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Bertier, née Krantz le 3 novembre 1914 à Bretignolles-sur-Mer et morte le 10 juillet 2001 à Montmorency[1], est une illustratrice et dessinatrice. Elle illustre surtout des livres pour enfants et dessine plusieurs bandes dessinées comme Line.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Bertier, née Krantz le 3 novembre 1914 à Bretignolles-sur-Mer et morte le 10 juillet 2001 à Montmorency, est une illustratrice et dessinatrice. Elle illustre surtout des livres pour enfants et dessine plusieurs bandes dessinées comme Line.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Bertier</t>
+          <t>Françoise_Bertier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Bertier commence à dessiner en 1948 et 1949, en travaillant notamment pour le magazine Pierrot puis pour Cœurs Vaillants[2],[3].
-Elle illustre ensuite un grand nombre de livres pour enfants, notamment dans les collections « Nouvelle Bibliothèque de Suzette » et « Rouge et Or (série Dauphine) »[4], ainsi que dans la collection « Spirale ». Elle dessine également pour la presse écrite, dans Le Figaro[5].
-En bande dessinée, elle est la première à créer Line, la série titre du magazine Line des éditions du Lombard[4]. Elle crée cette série en 1956-1957 sur des textes de Nicolas Goujon[4]. Mais elle n'obtient pas le succès escompté, avec un ton assez enfantin ; leurs successeurs André Gaudelette et Charles Nugue, puis Paul Cuvelier et Greg, feront nettement évoluer le personnage[4].
-Elle dessine en 1966 la bande dessinée Coco, le perroquet perdu, qui paraît dans le Journal de Nounours[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Bertier commence à dessiner en 1948 et 1949, en travaillant notamment pour le magazine Pierrot puis pour Cœurs Vaillants,.
+Elle illustre ensuite un grand nombre de livres pour enfants, notamment dans les collections « Nouvelle Bibliothèque de Suzette » et « Rouge et Or (série Dauphine) », ainsi que dans la collection « Spirale ». Elle dessine également pour la presse écrite, dans Le Figaro.
+En bande dessinée, elle est la première à créer Line, la série titre du magazine Line des éditions du Lombard. Elle crée cette série en 1956-1957 sur des textes de Nicolas Goujon. Mais elle n'obtient pas le succès escompté, avec un ton assez enfantin ; leurs successeurs André Gaudelette et Charles Nugue, puis Paul Cuvelier et Greg, feront nettement évoluer le personnage.
+Elle dessine en 1966 la bande dessinée Coco, le perroquet perdu, qui paraît dans le Journal de Nounours.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Bertier</t>
+          <t>Françoise_Bertier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Susy
-Série écrite par Gretha Stevns parue aux éditions G. P. dans la collection Rouge et Or (série Dauphine).
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Susy</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série écrite par Gretha Stevns parue aux éditions G. P. dans la collection Rouge et Or (série Dauphine).
 1959 : Susy et la Petite Bohémienne (Susy og zigeunerpigen, 1943), no 139
 1960 : Susy et Cie (Susy og co, 1944), no 160
 1962 : Nouvelles Aventures de Susy (Susy pâ eventyr, 1945), no 168
@@ -562,18 +584,94 @@
 1970 : Susy trouve une piste (Susy solstrale, 1959), no 269
 1971 : Susy au secours de Katia (Bravo Susy, 1960), no 284
 1973 : Susy détective (Susy I højt humør, 1961), no 298
-1975 : Susy, tambour battant (Susy forer an, 1962), no 4314
-Série Tina
-Série écrite par A. B. Carroll parue aux éditions G. P. dans la collection Spirale.
+1975 : Susy, tambour battant (Susy forer an, 1962), no 4314</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Françoise_Bertier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_Bertier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Illustrations pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Tina</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Série écrite par A. B. Carroll parue aux éditions G. P. dans la collection Spirale.
 1962 : Bonjour, Tina ! (Teena sir goddag, 1956, volume no 1), Spirale no 55
 1962 : Tina, mannequin (Hej ! Teena, 1956, volume no 2), Spirale no 66
 1963 : Le Cœur de Tina bat (Teenas hjerte banker, 1957, volume no 4), Spirale no 77
 1964 : Tom et Tina (Teena og Tom, 1958, volume no 6), Spirale no 81
 1964 : Merci, Tina ! (Tak, Teena !, 1958, volume no 7), Spirale no 87
 1964 : Tina, interprète (Teena ta’r på tur, 1958, volume no 8), Spirale no 94
-1966 : Tina, châtelaine (Teena slår i bordet, 1960, volume no 14), Spirale no 110
-Romans hors série
-1946 : Le Génie des perroquets de Germaine Deflou.
+1966 : Tina, châtelaine (Teena slår i bordet, 1960, volume no 14), Spirale no 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Françoise_Bertier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_Bertier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Illustrations pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans hors série</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1946 : Le Génie des perroquets de Germaine Deflou.
 1947 : Les Aventures de Nounouf pacha de Marcelle Vérité.
 1950 : Les Aventures d'Arlette au fil du Niger de Renée Tramond.
 1950 : La Maison des originaux de Madeleine Bru — Collection « Bibliothèque de Suzette », éd. Gautier-Languereau.
@@ -581,7 +679,7 @@
 1952 : Une affaire difficile à arranger de P.-J. Stahl ; « Collection des grands romanciers, », Hachette.
 1952 : Blanche-Neige de Grimm — coll. « Contes du Pierrot », éditions Bias.
 1952 : Petite Poucette d'après Andersen — coll. « Contes du gai Pierrot », éditions Bias.
-1952 : La Petite sirène par Alexandre Dumas[6] — coll. « Collection des grands romanciers », éd. Hachette.
+1952 : La Petite sirène par Alexandre Dumas — coll. « Collection des grands romanciers », éd. Hachette.
 1952 : La Rue de la Pie-qui-Chante de  Marcelle Vérité — coll. « Bibliothèque de Suzette ».
 1952 : Trois enfants et un perroquet de A. de La Tourrasse — coll. « Bibliothèque rose », éd. Hachette.
 1953 : Blancheneige et Rougerose de Grimm — coll. « Contes du gai Pierrot », éd. Bias.
@@ -602,12 +700,80 @@
 1957 : Cette terrible Jane (Jane Will You Behave) de Vera Barclay — « Collection Jeunesse », éd. Delachaux et Niestlé.
 1957 : Les Trois Aventureux de Lily Jean-Javal — Bibliothèque rouge et or. Série Dauphine no 10, Éditions G. P..
 1958 : Marron d'Inde d'Odile Delvaque — « Collection Papillons », éd. Bias.
-1958 : Le Palais de plumes d'Alice Coléno  — coll. « Il était une fois », éd. Hatier.
-Bandes dessinées
-1956-1957 : Line
-1966 : Coco, le perroquet perdu
-Magazines
-Pierrot
+1958 : Le Palais de plumes d'Alice Coléno  — coll. « Il était une fois », éd. Hatier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Françoise_Bertier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_Bertier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Illustrations pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1956-1957 : Line
+1966 : Coco, le perroquet perdu</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Françoise_Bertier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_Bertier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Illustrations pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Magazines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pierrot
 Cœurs Vaillants
 Âmes vaillantes</t>
         </is>
